--- a/data/Poles_NAM/NAM_poles_0_130.xlsx
+++ b/data/Poles_NAM/NAM_poles_0_130.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramvaes/Research/Conferences and meetings/Young CEED 2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penokean/0000_GitHub/Young_CEED_2.0/data/Poles_NAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F755877-3527-4F4F-8219-C1D0C859DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F69C7B-0FB7-0947-BEFE-A4CE495C8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F55FAC57-83FF-524C-B8F7-08FD345791B4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17340" xr2:uid="{F55FAC57-83FF-524C-B8F7-08FD345791B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
   <si>
     <t>name</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>K-Ar of  ?</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,6 +672,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -696,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,6 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,155 +1059,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DBC92F-D069-B741-9DD7-5F7C979A8C84}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="12" max="13" width="10.83203125" style="6"/>
-    <col min="23" max="23" width="10.83203125" style="14"/>
-    <col min="25" max="26" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="13" max="14" width="10.83203125" style="6"/>
+    <col min="24" max="24" width="10.83203125" style="14"/>
+    <col min="26" max="27" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>0.5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>36.299999999999997</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>242.13</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>38</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>24.7</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>4.8</v>
       </c>
-      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="L2" s="9"/>
+      <c r="M2" s="10">
         <v>-86.3</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>5.7</v>
       </c>
-      <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9">
+        <v>101</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="9">
+      <c r="S2" s="9">
         <v>-86.3</v>
       </c>
-      <c r="S2" s="9">
+      <c r="T2" s="9">
         <v>5.7</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0</v>
       </c>
       <c r="U2" s="9">
         <v>0</v>
@@ -1204,2270 +1218,2363 @@
       <c r="V2" s="9">
         <v>0</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="9">
+      <c r="Y2" s="9">
         <v>5</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>0.6</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>0.3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>19.25</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>257.67</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>29</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>9.1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>8.5</v>
       </c>
       <c r="K3" s="9">
         <v>8.5</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="M3" s="10">
         <v>-84.4</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>39.9</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>33</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>8.5</v>
       </c>
-      <c r="P3" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="9">
+        <v>101</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9">
+      <c r="S3" s="9">
         <v>-86.4</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <v>79.2</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>23</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <v>0.2</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
         <v>5</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="7">
         <v>0.1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>0.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>20.46</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>256.76</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>17</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>26</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>7.1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>6.9</v>
       </c>
       <c r="K4" s="9">
         <v>6.9</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="M4" s="10">
         <v>-85.8</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>264.3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>27.5</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>6.9</v>
       </c>
-      <c r="P4" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="9">
+        <v>101</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="9">
+      <c r="S4" s="9">
         <v>-85.3</v>
       </c>
-      <c r="S4" s="9">
+      <c r="T4" s="9">
         <v>-94.1</v>
       </c>
-      <c r="T4" s="9">
+      <c r="U4" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>22.7</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <v>0.3</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="X4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y4" s="9">
         <v>5</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>260.10000000000002</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>24</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>47.3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>4.3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3.5</v>
       </c>
       <c r="K5" s="9">
         <v>3.5</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M5" s="10">
         <v>-89.2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>310.89999999999998</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>70.7</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>3.5</v>
       </c>
-      <c r="P5" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="9">
+        <v>101</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <v>-88.9</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <v>-75.099999999999994</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>22.7</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>0.3</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="X5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="9">
+      <c r="Y5" s="9">
         <v>5</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="AA5" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>1.5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>65</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>232.4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>100</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>9.1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <v>7.9</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>-77.8</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>303.7</v>
       </c>
-      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9">
+        <v>101</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>-80</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="9">
         <v>4.2</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>80.8</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>22.8</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>0.4</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="9">
+      <c r="Y6" s="9">
         <v>3</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>1.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>71</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>238</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>24</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>21</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>11</v>
       </c>
       <c r="K7" s="9">
         <v>11</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
+        <v>11</v>
+      </c>
+      <c r="M7" s="10">
         <v>-85.7</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>122.7</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>8</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>11</v>
       </c>
-      <c r="P7" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="9">
+        <v>101</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>-81.099999999999994</v>
       </c>
-      <c r="S7" s="9">
+      <c r="T7" s="9">
         <v>74.5</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>80.8</v>
       </c>
-      <c r="U7" s="9">
+      <c r="V7" s="9">
         <v>22.8</v>
       </c>
-      <c r="V7" s="9">
+      <c r="W7" s="9">
         <v>0.4</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="X7" s="9">
+      <c r="Y7" s="9">
         <v>3</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="7">
         <v>0.5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>2.5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>1.5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>36.26</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>242.41</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>30</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>22.7</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>5.7</v>
       </c>
-      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
         <v>-84.5</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>241</v>
       </c>
-      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="9" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
+        <v>101</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>-84.5</v>
       </c>
-      <c r="S8" s="9">
+      <c r="T8" s="9">
         <v>-119.1</v>
       </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
         <v>80.8</v>
       </c>
-      <c r="U8" s="9">
+      <c r="V8" s="9">
         <v>22.8</v>
       </c>
-      <c r="V8" s="9">
+      <c r="W8" s="9">
         <v>0.4</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="X8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="9">
+      <c r="Y8" s="9">
         <v>5</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="AA8" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>261.48</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>14</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>42</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>6.2</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5.2</v>
       </c>
       <c r="K9" s="9">
         <v>5.2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="M9" s="10">
         <v>-89.2</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>178.3</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>5.9</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>5.2</v>
       </c>
-      <c r="P9" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="9">
+        <v>101</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>-89.5</v>
       </c>
-      <c r="S9" s="9">
+      <c r="T9" s="9">
         <v>-157.9</v>
       </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
         <v>80.8</v>
       </c>
-      <c r="U9" s="9">
+      <c r="V9" s="9">
         <v>22.9</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <v>0.8</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="9">
+      <c r="Y9" s="9">
         <v>5</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="AA9" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="7">
         <v>2.6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>5.3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>259.39999999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>50</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>25.6</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3.8</v>
       </c>
       <c r="K10" s="9">
         <v>3.8</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="M10" s="10">
         <v>-84.8</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>342.6</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>29.6</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>3.8</v>
       </c>
-      <c r="P10" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="9">
+        <v>101</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>-84.8</v>
       </c>
-      <c r="S10" s="9">
+      <c r="T10" s="9">
         <v>-25.6</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>22.8</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>1</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="X10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="9">
+      <c r="Y10" s="9">
         <v>5</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="AA10" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C11" s="7">
         <v>1.5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>7.5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>4.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>19.86</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>264.04000000000002</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>17</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>30</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>6.7</v>
       </c>
-      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10">
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
         <v>-87.9</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>275.89999999999998</v>
       </c>
-      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9">
+        <v>101</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <v>-88</v>
       </c>
-      <c r="S11" s="9">
+      <c r="T11" s="9">
         <v>-84.4</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <v>22.8</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>1</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="X11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="9">
+      <c r="Y11" s="9">
         <v>5</v>
       </c>
-      <c r="Z11" s="14" t="s">
+      <c r="AA11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>42.86</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>247.9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>23</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>38.200000000000003</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>5</v>
-      </c>
-      <c r="J12" s="9">
-        <v>6.2</v>
       </c>
       <c r="K12" s="9">
         <v>6.2</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="M12" s="10">
         <v>-86.9</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>187.8</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>24.8</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>6.2</v>
       </c>
-      <c r="P12" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="9">
+        <v>101</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <v>-85.5</v>
       </c>
-      <c r="S12" s="9">
+      <c r="T12" s="9">
         <v>-163.9</v>
       </c>
-      <c r="T12" s="9">
+      <c r="U12" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U12" s="9">
+      <c r="V12" s="9">
         <v>22.8</v>
       </c>
-      <c r="V12" s="9">
+      <c r="W12" s="9">
         <v>1.3</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="X12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="9">
+      <c r="Y12" s="9">
         <v>5</v>
       </c>
-      <c r="Z12" s="14" t="s">
+      <c r="AA12" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C13" s="7">
         <v>2.6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>4.3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>36.1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>243.9</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>48</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>5</v>
       </c>
-      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10">
+      <c r="L13" s="9"/>
+      <c r="M13" s="10">
         <v>-85.3</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>262.10000000000002</v>
       </c>
-      <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9">
+        <v>101</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <v>-85.5</v>
       </c>
-      <c r="S13" s="9">
+      <c r="T13" s="9">
         <v>-97.9</v>
       </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U13" s="9">
+      <c r="V13" s="9">
         <v>22.8</v>
       </c>
-      <c r="V13" s="9">
+      <c r="W13" s="9">
         <v>1.8</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="X13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="9">
+      <c r="Y13" s="9">
         <v>5</v>
       </c>
-      <c r="Z13" s="14" t="s">
+      <c r="AA13" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>259.7</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>22</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>21</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>6.9</v>
       </c>
-      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10">
+      <c r="L14" s="9"/>
+      <c r="M14" s="10">
         <v>-85.3</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>12.8</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>23.7</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>6.5</v>
       </c>
-      <c r="P14" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="9">
+        <v>101</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>-86</v>
       </c>
-      <c r="S14" s="9">
+      <c r="T14" s="9">
         <v>3.9</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U14" s="9">
+      <c r="V14" s="9">
         <v>22.8</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W14" s="9">
         <v>2</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="X14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="9">
+      <c r="Y14" s="9">
         <v>5</v>
       </c>
-      <c r="Z14" s="14" t="s">
+      <c r="AA14" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>36.04</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>244.08</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>30</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>12.5</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="9">
         <v>7.8</v>
       </c>
-      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="10">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10">
         <v>-82.9</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>309.10000000000002</v>
       </c>
-      <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9">
+        <v>101</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S15" s="9">
         <v>-83.3</v>
       </c>
-      <c r="S15" s="9">
+      <c r="T15" s="9">
         <v>-47.3</v>
       </c>
-      <c r="T15" s="9">
+      <c r="U15" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U15" s="9">
+      <c r="V15" s="9">
         <v>22.9</v>
       </c>
-      <c r="V15" s="9">
+      <c r="W15" s="9">
         <v>2.6</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="X15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X15" s="9">
+      <c r="Y15" s="9">
         <v>5</v>
       </c>
-      <c r="Z15" s="14" t="s">
+      <c r="AA15" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>15.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>45.3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>249.2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>144</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>51.9</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>12.9</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
         <v>13.5</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>-81.099999999999994</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>225.3</v>
       </c>
-      <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="9" t="s">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9">
+        <v>101</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="9">
+      <c r="S16" s="9">
         <v>-82.4</v>
       </c>
-      <c r="S16" s="9">
+      <c r="T16" s="9">
         <v>98.8</v>
       </c>
-      <c r="T16" s="9">
+      <c r="U16" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U16" s="9">
+      <c r="V16" s="9">
         <v>23.2</v>
       </c>
-      <c r="V16" s="9">
+      <c r="W16" s="9">
         <v>4.2</v>
       </c>
-      <c r="W16" s="14" t="s">
+      <c r="X16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X16" s="9">
+      <c r="Y16" s="9">
         <v>3</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="AA16" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="7">
+      <c r="C17" s="7">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="7">
         <v>22</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>21</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>37.6</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>246.6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>19</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>82.2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <v>3.7</v>
       </c>
-      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="10">
+      <c r="L17" s="9"/>
+      <c r="M17" s="10">
         <v>-82.9</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>346.2</v>
       </c>
-      <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9">
+        <v>101</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="9">
+      <c r="S17" s="9">
         <v>-83.5</v>
       </c>
-      <c r="S17" s="9">
+      <c r="T17" s="9">
         <v>-1.3</v>
       </c>
-      <c r="T17" s="9">
+      <c r="U17" s="9">
         <v>80.3</v>
       </c>
-      <c r="U17" s="9">
+      <c r="V17" s="9">
         <v>25.4</v>
       </c>
-      <c r="V17" s="9">
+      <c r="W17" s="9">
         <v>5.8</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="X17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="X17" s="9">
+      <c r="Y17" s="9">
         <v>5</v>
       </c>
-      <c r="Z17" s="14" t="s">
+      <c r="AA17" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="7">
         <v>18.899999999999999</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="7">
         <v>24.4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>21.65</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <v>53.7</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>227.3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>13</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <v>36</v>
       </c>
-      <c r="I18" s="9">
+      <c r="J18" s="9">
         <v>7</v>
-      </c>
-      <c r="J18" s="9">
-        <v>9.8000000000000007</v>
       </c>
       <c r="K18" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M18" s="10">
         <v>-82.7</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="10">
         <v>301.7</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>19</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P18" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="9">
+        <v>101</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
         <v>-83.7</v>
       </c>
-      <c r="S18" s="9">
+      <c r="T18" s="9">
         <v>-51</v>
       </c>
-      <c r="T18" s="9">
+      <c r="U18" s="9">
         <v>80.2</v>
       </c>
-      <c r="U18" s="9">
+      <c r="V18" s="9">
         <v>26</v>
       </c>
-      <c r="V18" s="9">
+      <c r="W18" s="9">
         <v>6</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="X18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="X18" s="9">
+      <c r="Y18" s="9">
         <v>5</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Z18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Z18" s="14" t="s">
+      <c r="AA18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="7">
+      <c r="C19" s="7">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19" s="7">
         <v>23</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>22.5</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <v>36.6</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>254.5</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>11</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>46.9</v>
-      </c>
-      <c r="I19" s="9">
-        <v>6.7</v>
       </c>
       <c r="J19" s="9">
         <v>6.7</v>
       </c>
       <c r="K19" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="L19" s="9">
         <v>9.5</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>-87.1</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>189.5</v>
       </c>
-      <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
+        <v>101</v>
+      </c>
+      <c r="R19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="9">
         <v>-86.7</v>
       </c>
-      <c r="S19" s="9">
+      <c r="T19" s="9">
         <v>177.4</v>
       </c>
-      <c r="T19" s="9">
+      <c r="U19" s="9">
         <v>80</v>
       </c>
-      <c r="U19" s="9">
+      <c r="V19" s="9">
         <v>26.6</v>
       </c>
-      <c r="V19" s="9">
+      <c r="W19" s="9">
         <v>6.2</v>
       </c>
-      <c r="W19" s="14" t="s">
+      <c r="X19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="9">
+      <c r="Y19" s="9">
         <v>4</v>
       </c>
-      <c r="Z19" s="14" t="s">
+      <c r="AA19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C20" s="7">
         <v>22</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20" s="7">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>23</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>38</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>252.7</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>17</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>19.2</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>8.4</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <v>11.2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>13.6</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>-76.400000000000006</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>30.3</v>
       </c>
-      <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="9" t="s">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
+        <v>101</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <v>-76.2</v>
       </c>
-      <c r="S20" s="9">
+      <c r="T20" s="9">
         <v>41</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="U20" s="9">
+      <c r="V20" s="9">
         <v>26.9</v>
       </c>
-      <c r="V20" s="9">
+      <c r="W20" s="9">
         <v>6.3</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="X20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X20" s="9">
+      <c r="Y20" s="9">
         <v>3</v>
       </c>
-      <c r="Z20" s="14" t="s">
+      <c r="AA20" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="7">
+      <c r="C21" s="7">
         <v>21</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="7">
         <v>26</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>23.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>36.799999999999997</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>254.6</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>43</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>18.2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>5.2</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K21" s="9">
+      <c r="L21" s="9">
         <v>7.3</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>-80.900000000000006</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>331.2</v>
       </c>
-      <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q21" s="9" t="s">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9">
+        <v>101</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S21" s="9">
         <v>-81.8</v>
       </c>
-      <c r="S21" s="9">
+      <c r="T21" s="9">
         <v>-17.8</v>
       </c>
-      <c r="T21" s="9">
+      <c r="U21" s="9">
         <v>79.8</v>
       </c>
-      <c r="U21" s="9">
+      <c r="V21" s="9">
         <v>27.3</v>
       </c>
-      <c r="V21" s="9">
+      <c r="W21" s="9">
         <v>6.4</v>
       </c>
-      <c r="W21" s="14" t="s">
+      <c r="X21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="9">
+      <c r="Y21" s="9">
         <v>4</v>
       </c>
-      <c r="Z21" s="14" t="s">
+      <c r="AA21" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="7">
+      <c r="C22" s="7">
         <v>23</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22" s="7">
         <v>29</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>26</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>37.200000000000003</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>254.4</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>23</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <v>21</v>
       </c>
-      <c r="I22" s="9">
+      <c r="J22" s="9">
         <v>6.8</v>
       </c>
-      <c r="J22" s="9">
+      <c r="K22" s="9">
         <v>6.9</v>
       </c>
-      <c r="K22" s="9">
+      <c r="L22" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>-79.7</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
         <v>342.6</v>
       </c>
-      <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="9" t="s">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <v>101</v>
+      </c>
+      <c r="R22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="9">
+      <c r="S22" s="9">
         <v>-80.5</v>
       </c>
-      <c r="S22" s="9">
+      <c r="T22" s="9">
         <v>-4.3</v>
       </c>
-      <c r="T22" s="9">
+      <c r="U22" s="9">
         <v>79.3</v>
       </c>
-      <c r="U22" s="9">
+      <c r="V22" s="9">
         <v>27.5</v>
       </c>
-      <c r="V22" s="9">
+      <c r="W22" s="9">
         <v>7.1</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="X22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="X22" s="9">
+      <c r="Y22" s="9">
         <v>4</v>
       </c>
-      <c r="Y22" s="14" t="s">
+      <c r="Z22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Z22" s="14" t="s">
+      <c r="AA22" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C23" s="7">
         <v>26</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23" s="7">
         <v>28</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>27</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>36.799999999999997</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>254.6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>57</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <v>13.1</v>
       </c>
-      <c r="I23" s="9">
+      <c r="J23" s="9">
         <v>5.4</v>
       </c>
-      <c r="J23" s="9">
+      <c r="K23" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K23" s="9">
+      <c r="L23" s="9">
         <v>7.3</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>-80.2</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>315.39999999999998</v>
       </c>
-      <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q23" s="9" t="s">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
+        <v>101</v>
+      </c>
+      <c r="R23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="R23" s="9">
+      <c r="S23" s="9">
         <v>-81.400000000000006</v>
       </c>
-      <c r="S23" s="9">
+      <c r="T23" s="9">
         <v>-32.9</v>
       </c>
-      <c r="T23" s="9">
+      <c r="U23" s="9">
         <v>78.8</v>
       </c>
-      <c r="U23" s="9">
+      <c r="V23" s="9">
         <v>22.7</v>
       </c>
-      <c r="V23" s="9">
+      <c r="W23" s="9">
         <v>7.5</v>
       </c>
-      <c r="W23" s="14" t="s">
+      <c r="X23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="9">
+      <c r="Y23" s="9">
         <v>4</v>
       </c>
-      <c r="Z23" s="14" t="s">
+      <c r="AA23" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="7">
+      <c r="C24" s="7">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24" s="7">
         <v>36</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>30</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>252.2</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>39</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>22.3</v>
       </c>
-      <c r="I24" s="9">
+      <c r="J24" s="9">
         <v>5</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K24" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K24" s="9">
+      <c r="L24" s="9">
         <v>6.6</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>-82.8</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>316.2</v>
       </c>
-      <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="9" t="s">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9">
+        <v>101</v>
+      </c>
+      <c r="R24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R24" s="9">
+      <c r="S24" s="9">
         <v>-84.2</v>
       </c>
-      <c r="S24" s="9">
+      <c r="T24" s="9">
         <v>-24</v>
       </c>
-      <c r="T24" s="9">
+      <c r="U24" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="U24" s="9">
+      <c r="V24" s="9">
         <v>12.5</v>
       </c>
-      <c r="V24" s="9">
+      <c r="W24" s="9">
         <v>8.6</v>
       </c>
-      <c r="W24" s="14" t="s">
+      <c r="X24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="X24" s="9">
+      <c r="Y24" s="9">
         <v>3</v>
       </c>
-      <c r="Z24" s="14" t="s">
+      <c r="AA24" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="7">
+      <c r="C25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25" s="7">
         <v>36</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>30</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="7">
         <v>252.1</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H25" s="9">
         <v>61</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>18.100000000000001</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="J25" s="9">
-        <v>4.5</v>
       </c>
       <c r="K25" s="9">
         <v>4.5</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="M25" s="10">
         <v>-81.900000000000006</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>323.60000000000002</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="O25" s="9">
+      <c r="P25" s="9">
         <v>4.5</v>
       </c>
-      <c r="P25" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="9">
+        <v>101</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="9">
+      <c r="S25" s="9">
         <v>-83.1</v>
       </c>
-      <c r="S25" s="9">
+      <c r="T25" s="9">
         <v>-16.899999999999999</v>
       </c>
-      <c r="T25" s="9">
+      <c r="U25" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="U25" s="9">
+      <c r="V25" s="9">
         <v>12.5</v>
       </c>
-      <c r="V25" s="9">
+      <c r="W25" s="9">
         <v>8.6</v>
       </c>
-      <c r="W25" s="14" t="s">
+      <c r="X25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="X25" s="9">
+      <c r="Y25" s="9">
         <v>4</v>
       </c>
-      <c r="Z25" s="14" t="s">
+      <c r="AA25" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="7">
+      <c r="C26" s="7">
         <v>31</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26" s="7">
         <v>35</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>33</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>260.8</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H26" s="9">
         <v>9</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>70.400000000000006</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>6.2</v>
       </c>
-      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="10">
+      <c r="L26" s="9"/>
+      <c r="M26" s="10">
         <v>-80.599999999999994</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>22.1</v>
       </c>
-      <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="9" t="s">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9">
+        <v>101</v>
+      </c>
+      <c r="R26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="9">
+      <c r="S26" s="9">
         <v>-79.5</v>
       </c>
-      <c r="S26" s="9">
+      <c r="T26" s="9">
         <v>43.5</v>
       </c>
-      <c r="T26" s="9">
+      <c r="U26" s="9">
         <v>76</v>
       </c>
-      <c r="U26" s="9">
+      <c r="V26" s="9">
         <v>6.1</v>
       </c>
-      <c r="V26" s="9">
+      <c r="W26" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W26" s="14" t="s">
+      <c r="X26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="X26" s="9">
+      <c r="Y26" s="9">
         <v>6</v>
       </c>
-      <c r="Z26" s="14" t="s">
+      <c r="AA26" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="7">
+      <c r="C27" s="7">
         <v>35</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27" s="7">
         <v>39</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>37</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <v>29.1</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>256.8</v>
       </c>
-      <c r="G27" s="9">
+      <c r="H27" s="9">
         <v>18</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>65.099999999999994</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="9">
         <v>4.3</v>
-      </c>
-      <c r="J27" s="9">
-        <v>5.4</v>
       </c>
       <c r="K27" s="9">
         <v>5.4</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="M27" s="10">
         <v>-80</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>5.3</v>
       </c>
-      <c r="N27" s="9">
+      <c r="O27" s="9">
         <v>42.5</v>
       </c>
-      <c r="O27" s="9">
+      <c r="P27" s="9">
         <v>5.4</v>
       </c>
-      <c r="P27" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="9">
+        <v>101</v>
+      </c>
+      <c r="R27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R27" s="9">
+      <c r="S27" s="9">
         <v>-78.900000000000006</v>
       </c>
-      <c r="S27" s="9">
+      <c r="T27" s="9">
         <v>31.9</v>
       </c>
-      <c r="T27" s="9">
+      <c r="U27" s="9">
         <v>74.900000000000006</v>
       </c>
-      <c r="U27" s="9">
+      <c r="V27" s="9">
         <v>1.4</v>
       </c>
-      <c r="V27" s="9">
+      <c r="W27" s="9">
         <v>11.4</v>
       </c>
-      <c r="W27" s="14" t="s">
+      <c r="X27" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="X27" s="9">
+      <c r="Y27" s="9">
         <v>4</v>
       </c>
-      <c r="Z27" s="14" t="s">
+      <c r="AA27" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="7">
+      <c r="C28" s="7">
         <v>36</v>
       </c>
-      <c r="C28" s="7">
+      <c r="D28" s="7">
         <v>41</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>38.5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="7">
         <v>52.54</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>228.65</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>37</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>92</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <v>4.8</v>
-      </c>
-      <c r="J28" s="9">
-        <v>7</v>
       </c>
       <c r="K28" s="9">
         <v>7</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
+        <v>7</v>
+      </c>
+      <c r="M28" s="10">
         <v>-78.2</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>297.5</v>
       </c>
-      <c r="N28" s="9">
+      <c r="O28" s="9">
         <v>41</v>
       </c>
-      <c r="O28" s="9">
+      <c r="P28" s="9">
         <v>7</v>
       </c>
-      <c r="P28" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="9">
+        <v>101</v>
+      </c>
+      <c r="R28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="9">
+      <c r="S28" s="9">
         <v>-80.7</v>
       </c>
-      <c r="S28" s="9">
+      <c r="T28" s="9">
         <v>-40.299999999999997</v>
       </c>
-      <c r="T28" s="9">
+      <c r="U28" s="9">
         <v>74.5</v>
       </c>
-      <c r="U28" s="9">
+      <c r="V28" s="9">
         <v>0.1</v>
       </c>
-      <c r="V28" s="9">
+      <c r="W28" s="9">
         <v>12</v>
       </c>
-      <c r="W28" s="14" t="s">
+      <c r="X28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="X28" s="9">
+      <c r="Y28" s="9">
         <v>5</v>
       </c>
-      <c r="Z28" s="14" t="s">
+      <c r="AA28" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="7">
+      <c r="C29" s="7">
         <v>34</v>
       </c>
-      <c r="C29" s="7">
+      <c r="D29" s="7">
         <v>42</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>38</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <v>55.9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>296.60000000000002</v>
       </c>
-      <c r="G29" s="9">
+      <c r="H29" s="9">
         <v>10</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>406.1</v>
       </c>
-      <c r="I29" s="9">
+      <c r="J29" s="9">
         <v>2.4</v>
       </c>
-      <c r="J29" s="9">
+      <c r="K29" s="9">
         <v>3.4</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="9">
         <v>4</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>-85.5</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>297.7</v>
       </c>
-      <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q29" s="9" t="s">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
+        <v>101</v>
+      </c>
+      <c r="R29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R29" s="9">
+      <c r="S29" s="9">
         <v>-87.2</v>
       </c>
-      <c r="S29" s="9">
+      <c r="T29" s="9">
         <v>-9.1</v>
       </c>
-      <c r="T29" s="9">
+      <c r="U29" s="9">
         <v>74.5</v>
       </c>
-      <c r="U29" s="9">
+      <c r="V29" s="9">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="V29" s="9">
+      <c r="W29" s="9">
         <v>12.6</v>
       </c>
-      <c r="W29" s="14" t="s">
+      <c r="X29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="X29" s="9">
+      <c r="Y29" s="9">
         <v>3</v>
       </c>
-      <c r="Z29" s="14" t="s">
+      <c r="AA29" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7">
         <v>41.5</v>
       </c>
-      <c r="C30" s="7">
+      <c r="D30" s="7">
         <v>42.5</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>42</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <v>60.3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>234.7</v>
       </c>
-      <c r="G30" s="9">
+      <c r="H30" s="9">
         <v>21</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>116.8</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="9">
         <v>3</v>
       </c>
-      <c r="J30" s="9">
+      <c r="K30" s="9">
         <v>4.8</v>
       </c>
-      <c r="K30" s="9">
+      <c r="L30" s="9">
         <v>5.4</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>-79.2</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>325.8</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>39.799999999999997</v>
       </c>
-      <c r="O30" s="9">
+      <c r="P30" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P30" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="9">
+        <v>101</v>
+      </c>
+      <c r="R30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="9">
+      <c r="S30" s="9">
         <v>-80.099999999999994</v>
       </c>
-      <c r="S30" s="9">
+      <c r="T30" s="9">
         <v>-1.7</v>
       </c>
-      <c r="T30" s="9">
+      <c r="U30" s="9">
         <v>74.400000000000006</v>
       </c>
-      <c r="U30" s="9">
+      <c r="V30" s="9">
         <v>-2.5</v>
       </c>
-      <c r="V30" s="9">
+      <c r="W30" s="9">
         <v>13.4</v>
       </c>
-      <c r="W30" s="14" t="s">
+      <c r="X30" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="X30" s="9">
+      <c r="Y30" s="9">
         <v>6</v>
       </c>
-      <c r="Z30" s="14" t="s">
+      <c r="AA30" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="7">
+      <c r="C31" s="7">
         <v>38</v>
       </c>
-      <c r="C31" s="7">
+      <c r="D31" s="7">
         <v>50</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>44</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <v>43</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>250.5</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H31" s="9">
         <v>10</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <v>40.4</v>
       </c>
-      <c r="I31" s="9">
+      <c r="J31" s="9">
         <v>7.7</v>
       </c>
-      <c r="J31" s="9">
+      <c r="K31" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K31" s="9">
+      <c r="L31" s="9">
         <v>11.7</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>-83.7</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="10">
         <v>323.7</v>
       </c>
-      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q31" s="9" t="s">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9">
+        <v>101</v>
+      </c>
+      <c r="R31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="9">
+      <c r="S31" s="9">
         <v>-73.2</v>
       </c>
-      <c r="S31" s="9">
+      <c r="T31" s="9">
         <v>70.3</v>
       </c>
-      <c r="T31" s="9">
+      <c r="U31" s="9">
         <v>74.3</v>
       </c>
-      <c r="U31" s="9">
+      <c r="V31" s="9">
         <v>-3.7</v>
       </c>
-      <c r="V31" s="9">
+      <c r="W31" s="9">
         <v>14.2</v>
       </c>
-      <c r="W31" s="14" t="s">
+      <c r="X31" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="X31" s="9">
+      <c r="Y31" s="9">
         <v>5</v>
       </c>
-      <c r="Y31" s="14" t="s">
+      <c r="Z31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Z31" s="14" t="s">
+      <c r="AA31" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="7">
+      <c r="C32" s="7">
         <v>44</v>
       </c>
-      <c r="C32" s="7">
+      <c r="D32" s="7">
         <v>49</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>46.5</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
         <v>44.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>250</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>19</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>14.7</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <v>8.4</v>
-      </c>
-      <c r="J32" s="9">
-        <v>10.1</v>
       </c>
       <c r="K32" s="9">
         <v>10.1</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="M32" s="10">
         <v>-83.5</v>
       </c>
-      <c r="M32" s="10">
+      <c r="N32" s="10">
         <v>357.4</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="9">
         <v>10.1</v>
       </c>
-      <c r="P32" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="9">
+        <v>101</v>
+      </c>
+      <c r="R32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="9">
+      <c r="S32" s="9">
         <v>-82.6</v>
       </c>
-      <c r="S32" s="9">
+      <c r="T32" s="9">
         <v>19.8</v>
       </c>
-      <c r="T32" s="9">
+      <c r="U32" s="9">
         <v>74.2</v>
       </c>
-      <c r="U32" s="9">
+      <c r="V32" s="9">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="V32" s="9">
+      <c r="W32" s="9">
         <v>15</v>
       </c>
-      <c r="W32" s="14" t="s">
+      <c r="X32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X32" s="9">
+      <c r="Y32" s="9">
         <v>5</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="Z32" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="7">
+      <c r="C33" s="7">
         <v>42</v>
       </c>
-      <c r="C33" s="7">
+      <c r="D33" s="7">
         <v>50</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <v>46</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F33" s="7">
         <v>42.3</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <v>248.1</v>
       </c>
-      <c r="G33" s="9">
+      <c r="H33" s="9">
         <v>18</v>
       </c>
-      <c r="H33" s="9">
+      <c r="I33" s="9">
         <v>13.9</v>
-      </c>
-      <c r="I33" s="9">
-        <v>9.6</v>
       </c>
       <c r="J33" s="9">
         <v>9.6</v>
@@ -3475,295 +3582,307 @@
       <c r="K33" s="9">
         <v>9.6</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="M33" s="10">
         <v>-79.400000000000006</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>326.2</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>13.9</v>
       </c>
-      <c r="O33" s="9">
+      <c r="P33" s="9">
         <v>9.6</v>
       </c>
-      <c r="P33" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="9">
+        <v>101</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="9">
+      <c r="S33" s="9">
         <v>-80.2</v>
       </c>
-      <c r="S33" s="9">
+      <c r="T33" s="9">
         <v>0.8</v>
       </c>
-      <c r="T33" s="9">
+      <c r="U33" s="9">
         <v>74.2</v>
       </c>
-      <c r="U33" s="9">
+      <c r="V33" s="9">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="V33" s="9">
+      <c r="W33" s="9">
         <v>15</v>
       </c>
-      <c r="W33" s="14" t="s">
+      <c r="X33" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="X33" s="9">
+      <c r="Y33" s="9">
         <v>4</v>
       </c>
-      <c r="Y33" s="14" t="s">
+      <c r="Z33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Z33" s="14" t="s">
+      <c r="AA33" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="7">
+      <c r="C34" s="7">
         <v>42</v>
       </c>
-      <c r="C34" s="7">
+      <c r="D34" s="7">
         <v>47</v>
       </c>
-      <c r="D34" s="8">
+      <c r="E34" s="8">
         <v>44.5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>38.4</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>280.60000000000002</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>11</v>
       </c>
-      <c r="H34" s="9">
+      <c r="I34" s="9">
         <v>21.2</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="9">
         <v>10.1</v>
       </c>
-      <c r="J34" s="9">
+      <c r="K34" s="9">
         <v>11.8</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L34" s="9">
         <v>15.4</v>
       </c>
-      <c r="L34" s="10">
+      <c r="M34" s="10">
         <v>-85.5</v>
       </c>
-      <c r="M34" s="10">
+      <c r="N34" s="10">
         <v>63.7</v>
       </c>
-      <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q34" s="9" t="s">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9">
+        <v>101</v>
+      </c>
+      <c r="R34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="9">
+      <c r="S34" s="9">
         <v>-81.2</v>
       </c>
-      <c r="S34" s="9">
+      <c r="T34" s="9">
         <v>84</v>
       </c>
-      <c r="T34" s="9">
+      <c r="U34" s="9">
         <v>74.5</v>
       </c>
-      <c r="U34" s="9">
+      <c r="V34" s="9">
         <v>-4.8</v>
       </c>
-      <c r="V34" s="9">
+      <c r="W34" s="9">
         <v>15.3</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="X34" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="X34" s="9">
+      <c r="Y34" s="9">
         <v>4</v>
       </c>
-      <c r="Z34" s="14" t="s">
+      <c r="AA34" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="7">
+      <c r="C35" s="7">
         <v>44</v>
       </c>
-      <c r="C35" s="7">
+      <c r="D35" s="7">
         <v>51</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <v>47</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="7">
         <v>46.4</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>245.2</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>11</v>
       </c>
-      <c r="H35" s="9">
+      <c r="I35" s="9">
         <v>68.099999999999994</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <v>5.6</v>
       </c>
-      <c r="J35" s="9">
+      <c r="K35" s="9">
         <v>7.1</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L35" s="9">
         <v>8.9</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="10">
         <v>-72</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="10">
         <v>341.6</v>
       </c>
-      <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q35" s="9" t="s">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
+        <v>101</v>
+      </c>
+      <c r="R35" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="R35" s="9">
+      <c r="S35" s="9">
         <v>-71.900000000000006</v>
       </c>
-      <c r="S35" s="9">
+      <c r="T35" s="9">
         <v>10.7</v>
       </c>
-      <c r="T35" s="9">
+      <c r="U35" s="9">
         <v>74.5</v>
       </c>
-      <c r="U35" s="9">
+      <c r="V35" s="9">
         <v>-4.8</v>
       </c>
-      <c r="V35" s="9">
+      <c r="W35" s="9">
         <v>15.3</v>
       </c>
-      <c r="W35" s="14" t="s">
+      <c r="X35" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="X35" s="9">
+      <c r="Y35" s="9">
         <v>6</v>
       </c>
-      <c r="Z35" s="14" t="s">
+      <c r="AA35" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="7">
+      <c r="C36" s="7">
         <v>48</v>
       </c>
-      <c r="C36" s="7">
+      <c r="D36" s="7">
         <v>52</v>
       </c>
-      <c r="D36" s="8">
+      <c r="E36" s="8">
         <v>50</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>46.2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>248.5</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>16</v>
       </c>
-      <c r="H36" s="9">
+      <c r="I36" s="9">
         <v>46.14</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>4</v>
       </c>
-      <c r="J36" s="9">
+      <c r="K36" s="9">
         <v>4.7</v>
       </c>
-      <c r="K36" s="9">
+      <c r="L36" s="9">
         <v>6.1</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>-77.099999999999994</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>325.8</v>
       </c>
-      <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q36" s="9" t="s">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9">
+        <v>101</v>
+      </c>
+      <c r="R36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R36" s="9">
+      <c r="S36" s="9">
         <v>-78.099999999999994</v>
       </c>
-      <c r="S36" s="9">
+      <c r="T36" s="9">
         <v>-0.9</v>
       </c>
-      <c r="T36" s="9">
+      <c r="U36" s="9">
         <v>75.900000000000006</v>
       </c>
-      <c r="U36" s="9">
+      <c r="V36" s="9">
         <v>-3.5</v>
       </c>
-      <c r="V36" s="9">
+      <c r="W36" s="9">
         <v>16.2</v>
       </c>
-      <c r="W36" s="14" t="s">
+      <c r="X36" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="X36" s="9">
+      <c r="Y36" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="7">
+      <c r="C37" s="7">
         <v>45</v>
       </c>
-      <c r="C37" s="7">
+      <c r="D37" s="7">
         <v>55</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E37" s="8">
         <v>50</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <v>44.5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>249.8</v>
       </c>
-      <c r="G37" s="9">
+      <c r="H37" s="9">
         <v>42</v>
       </c>
-      <c r="H37" s="9">
+      <c r="I37" s="9">
         <v>13.5</v>
-      </c>
-      <c r="I37" s="9">
-        <v>6.2</v>
       </c>
       <c r="J37" s="9">
         <v>6.2</v>
@@ -3771,2151 +3890,2241 @@
       <c r="K37" s="9">
         <v>6.2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="M37" s="10">
         <v>-83.1</v>
       </c>
-      <c r="M37" s="10">
+      <c r="N37" s="10">
         <v>326.3</v>
       </c>
-      <c r="N37" s="9">
+      <c r="O37" s="9">
         <v>13.5</v>
       </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9">
         <v>6.2</v>
       </c>
-      <c r="P37" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="9">
+        <v>101</v>
+      </c>
+      <c r="R37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="9">
+      <c r="S37" s="9">
         <v>-83.5</v>
       </c>
-      <c r="S37" s="9">
+      <c r="T37" s="9">
         <v>15.9</v>
       </c>
-      <c r="T37" s="9">
+      <c r="U37" s="9">
         <v>75.900000000000006</v>
       </c>
-      <c r="U37" s="9">
+      <c r="V37" s="9">
         <v>-3.5</v>
       </c>
-      <c r="V37" s="9">
+      <c r="W37" s="9">
         <v>16.2</v>
       </c>
-      <c r="W37" s="14" t="s">
+      <c r="X37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="X37" s="9">
+      <c r="Y37" s="9">
         <v>6</v>
       </c>
-      <c r="Y37" s="14" t="s">
+      <c r="Z37" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="7">
+      <c r="C38" s="7">
         <v>49</v>
       </c>
-      <c r="C38" s="7">
+      <c r="D38" s="7">
         <v>53</v>
       </c>
-      <c r="D38" s="8">
+      <c r="E38" s="8">
         <v>51</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>41.6</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>249.6</v>
       </c>
-      <c r="G38" s="9">
+      <c r="H38" s="9">
         <v>25</v>
       </c>
-      <c r="H38" s="9">
+      <c r="I38" s="9">
         <v>35.4</v>
       </c>
-      <c r="I38" s="9">
+      <c r="J38" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J38" s="9">
+      <c r="K38" s="9">
         <v>4.8</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L38" s="9">
         <v>6.9</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>-77.599999999999994</v>
       </c>
-      <c r="M38" s="10">
+      <c r="N38" s="10">
         <v>309.10000000000002</v>
       </c>
-      <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q38" s="9" t="s">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
+        <v>101</v>
+      </c>
+      <c r="R38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="9">
+      <c r="S38" s="9">
         <v>-75.8</v>
       </c>
-      <c r="S38" s="9">
+      <c r="T38" s="9">
         <v>51.7</v>
       </c>
-      <c r="T38" s="9">
+      <c r="U38" s="9">
         <v>76.5</v>
       </c>
-      <c r="U38" s="9">
+      <c r="V38" s="9">
         <v>-2.8</v>
       </c>
-      <c r="V38" s="9">
+      <c r="W38" s="9">
         <v>16.5</v>
       </c>
-      <c r="W38" s="14" t="s">
+      <c r="X38" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="X38" s="9">
+      <c r="Y38" s="9">
         <v>6</v>
       </c>
-      <c r="Y38" s="14" t="s">
+      <c r="Z38" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="7">
+      <c r="C39" s="7">
         <v>47</v>
       </c>
-      <c r="C39" s="7">
+      <c r="D39" s="7">
         <v>54</v>
       </c>
-      <c r="D39" s="8">
+      <c r="E39" s="8">
         <v>51</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <v>47.9</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>249.9</v>
       </c>
-      <c r="G39" s="9">
+      <c r="H39" s="9">
         <v>94</v>
       </c>
-      <c r="H39" s="9">
+      <c r="I39" s="9">
         <v>32.700000000000003</v>
       </c>
-      <c r="I39" s="9">
+      <c r="J39" s="9">
         <v>2.6</v>
-      </c>
-      <c r="J39" s="9">
-        <v>3.5</v>
       </c>
       <c r="K39" s="9">
         <v>3.5</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M39" s="10">
         <v>-82.7</v>
       </c>
-      <c r="M39" s="10">
+      <c r="N39" s="10">
         <v>347.2</v>
       </c>
-      <c r="N39" s="9">
+      <c r="O39" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="O39" s="9">
+      <c r="P39" s="9">
         <v>3.5</v>
       </c>
-      <c r="P39" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="9">
+        <v>101</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R39" s="9">
+      <c r="S39" s="9">
         <v>-81.8</v>
       </c>
-      <c r="S39" s="9">
+      <c r="T39" s="9">
         <v>31.2</v>
       </c>
-      <c r="T39" s="9">
+      <c r="U39" s="9">
         <v>76.5</v>
       </c>
-      <c r="U39" s="9">
+      <c r="V39" s="9">
         <v>-2.8</v>
       </c>
-      <c r="V39" s="9">
+      <c r="W39" s="9">
         <v>16.5</v>
       </c>
-      <c r="W39" s="14" t="s">
+      <c r="X39" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="X39" s="9">
+      <c r="Y39" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="7">
+      <c r="C40" s="7">
         <v>53</v>
       </c>
-      <c r="C40" s="7">
+      <c r="D40" s="7">
         <v>57</v>
       </c>
-      <c r="D40" s="8">
+      <c r="E40" s="8">
         <v>55</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>44.6</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>252</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>58</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>19</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="10">
+      <c r="L40" s="9"/>
+      <c r="M40" s="10">
         <v>-81.400000000000006</v>
       </c>
-      <c r="M40" s="10">
+      <c r="N40" s="10">
         <v>347.7</v>
       </c>
-      <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q40" s="9" t="s">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9">
+        <v>101</v>
+      </c>
+      <c r="R40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="9">
+      <c r="S40" s="9">
         <v>-71.3</v>
       </c>
-      <c r="S40" s="9">
+      <c r="T40" s="9">
         <v>71.7</v>
       </c>
-      <c r="T40" s="9">
+      <c r="U40" s="9">
         <v>79.8</v>
       </c>
-      <c r="U40" s="9">
+      <c r="V40" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V40" s="9">
+      <c r="W40" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="W40" s="14" t="s">
+      <c r="X40" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="X40" s="9">
+      <c r="Y40" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="7">
+      <c r="C41" s="7">
         <v>50</v>
       </c>
-      <c r="C41" s="7">
+      <c r="D41" s="7">
         <v>66</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E41" s="8">
         <v>57.5</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <v>40</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>254.7</v>
       </c>
-      <c r="G41" s="9">
+      <c r="H41" s="9">
         <v>3</v>
       </c>
-      <c r="H41" s="9">
+      <c r="I41" s="9">
         <v>76</v>
       </c>
-      <c r="I41" s="9">
+      <c r="J41" s="9">
         <v>14</v>
       </c>
-      <c r="J41" s="9">
+      <c r="K41" s="9">
         <v>18</v>
       </c>
-      <c r="K41" s="9">
+      <c r="L41" s="9">
         <v>23</v>
       </c>
-      <c r="L41" s="10">
+      <c r="M41" s="10">
         <v>-68.099999999999994</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>9.4</v>
       </c>
-      <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q41" s="9" t="s">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9">
+        <v>101</v>
+      </c>
+      <c r="R41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="9">
+      <c r="S41" s="9">
         <v>-67.3</v>
       </c>
-      <c r="S41" s="9">
+      <c r="T41" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="T41" s="9">
+      <c r="U41" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="U41" s="9">
+      <c r="V41" s="9">
         <v>6.2</v>
       </c>
-      <c r="V41" s="9">
+      <c r="W41" s="9">
         <v>18.2</v>
       </c>
-      <c r="W41" s="14" t="s">
+      <c r="X41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="X41" s="9">
+      <c r="Y41" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="7">
+      <c r="C42" s="7">
         <v>59.2</v>
       </c>
-      <c r="C42" s="7">
+      <c r="D42" s="7">
         <v>61.6</v>
       </c>
-      <c r="D42" s="8">
+      <c r="E42" s="8">
         <v>60.4</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>36.6</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>252.1</v>
       </c>
-      <c r="G42" s="9">
+      <c r="H42" s="9">
         <v>104</v>
       </c>
-      <c r="H42" s="9">
+      <c r="I42" s="9">
         <v>21.9</v>
       </c>
-      <c r="I42" s="9">
+      <c r="J42" s="9">
         <v>3</v>
       </c>
-      <c r="J42" s="9">
+      <c r="K42" s="9">
         <v>2.7</v>
       </c>
-      <c r="K42" s="9">
+      <c r="L42" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="10">
         <v>-75.900000000000006</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>347.7</v>
       </c>
-      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q42" s="9" t="s">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9">
+        <v>101</v>
+      </c>
+      <c r="R42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R42" s="9">
+      <c r="S42" s="9">
         <v>-73.400000000000006</v>
       </c>
-      <c r="S42" s="9">
+      <c r="T42" s="9">
         <v>52</v>
       </c>
-      <c r="T42" s="9">
+      <c r="U42" s="9">
         <v>81.8</v>
       </c>
-      <c r="U42" s="9">
+      <c r="V42" s="9">
         <v>4.8</v>
       </c>
-      <c r="V42" s="9">
+      <c r="W42" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="W42" s="14" t="s">
+      <c r="X42" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="X42" s="9">
+      <c r="Y42" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="7">
+      <c r="C43" s="7">
         <v>61</v>
       </c>
-      <c r="C43" s="7">
+      <c r="D43" s="7">
         <v>65</v>
       </c>
-      <c r="D43" s="8">
+      <c r="E43" s="8">
         <v>63</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F43" s="7">
         <v>31.5</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>249.2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="H43" s="9">
         <v>25</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I43" s="9">
         <v>678.2</v>
       </c>
-      <c r="I43" s="9">
+      <c r="J43" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J43" s="9">
+      <c r="K43" s="9">
         <v>1.2</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>1.7</v>
       </c>
-      <c r="L43" s="10">
+      <c r="M43" s="10">
         <v>-77</v>
       </c>
-      <c r="M43" s="10">
+      <c r="N43" s="10">
         <v>21</v>
       </c>
-      <c r="N43" s="9">
+      <c r="O43" s="9">
         <v>428.5</v>
       </c>
-      <c r="O43" s="9">
+      <c r="P43" s="9">
         <v>1.4</v>
       </c>
-      <c r="P43" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" s="9">
+        <v>101</v>
+      </c>
+      <c r="R43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="9">
+      <c r="S43" s="9">
         <v>-75.599999999999994</v>
       </c>
-      <c r="S43" s="9">
+      <c r="T43" s="9">
         <v>50.6</v>
       </c>
-      <c r="T43" s="9">
+      <c r="U43" s="9">
         <v>82.2</v>
       </c>
-      <c r="U43" s="9">
+      <c r="V43" s="9">
         <v>4</v>
       </c>
-      <c r="V43" s="9">
+      <c r="W43" s="9">
         <v>20</v>
       </c>
-      <c r="W43" s="14" t="s">
+      <c r="X43" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="X43" s="9">
+      <c r="Y43" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="7">
+      <c r="C44" s="7">
         <v>63</v>
       </c>
-      <c r="C44" s="7">
+      <c r="D44" s="7">
         <v>64</v>
       </c>
-      <c r="D44" s="8">
+      <c r="E44" s="8">
         <v>63.5</v>
       </c>
-      <c r="E44" s="7">
+      <c r="F44" s="7">
         <v>51.9</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>247.1</v>
       </c>
-      <c r="G44" s="9">
+      <c r="H44" s="9">
         <v>20</v>
       </c>
-      <c r="H44" s="9">
+      <c r="I44" s="9">
         <v>24</v>
       </c>
-      <c r="I44" s="9">
+      <c r="J44" s="9">
         <v>6.6</v>
       </c>
-      <c r="J44" s="9">
+      <c r="K44" s="9">
         <v>10.3</v>
       </c>
-      <c r="K44" s="9">
+      <c r="L44" s="9">
         <v>11.6</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <v>-72</v>
       </c>
-      <c r="M44" s="10">
+      <c r="N44" s="10">
         <v>5.3</v>
       </c>
-      <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q44" s="9" t="s">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9">
+        <v>101</v>
+      </c>
+      <c r="R44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R44" s="9">
+      <c r="S44" s="9">
         <v>-66.099999999999994</v>
       </c>
-      <c r="S44" s="9">
+      <c r="T44" s="9">
         <v>62.3</v>
       </c>
-      <c r="T44" s="9">
+      <c r="U44" s="9">
         <v>82.2</v>
       </c>
-      <c r="U44" s="9">
+      <c r="V44" s="9">
         <v>4</v>
       </c>
-      <c r="V44" s="9">
+      <c r="W44" s="9">
         <v>20</v>
       </c>
-      <c r="W44" s="14" t="s">
+      <c r="X44" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="X44" s="9">
+      <c r="Y44" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="7">
+      <c r="C45" s="7">
         <v>59</v>
       </c>
-      <c r="C45" s="7">
+      <c r="D45" s="7">
         <v>67</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E45" s="8">
         <v>63</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F45" s="7">
         <v>47.6</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <v>251.1</v>
       </c>
-      <c r="G45" s="9">
+      <c r="H45" s="9">
         <v>36</v>
       </c>
-      <c r="H45" s="9">
+      <c r="I45" s="9">
         <v>43.4</v>
       </c>
-      <c r="I45" s="9">
+      <c r="J45" s="9">
         <v>3.7</v>
-      </c>
-      <c r="J45" s="9">
-        <v>5.4</v>
       </c>
       <c r="K45" s="9">
         <v>5.4</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="M45" s="10">
         <v>-81.8</v>
       </c>
-      <c r="M45" s="10">
+      <c r="N45" s="10">
         <v>1.4</v>
       </c>
-      <c r="N45" s="9">
+      <c r="O45" s="9">
         <v>20.2</v>
       </c>
-      <c r="O45" s="9">
+      <c r="P45" s="9">
         <v>5.4</v>
       </c>
-      <c r="P45" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" s="9">
+        <v>101</v>
+      </c>
+      <c r="R45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R45" s="9">
+      <c r="S45" s="9">
         <v>-81.7</v>
       </c>
-      <c r="S45" s="9">
+      <c r="T45" s="9">
         <v>29.2</v>
       </c>
-      <c r="T45" s="9">
+      <c r="U45" s="9">
         <v>82.2</v>
       </c>
-      <c r="U45" s="9">
+      <c r="V45" s="9">
         <v>4</v>
       </c>
-      <c r="V45" s="9">
+      <c r="W45" s="9">
         <v>20</v>
       </c>
-      <c r="W45" s="14" t="s">
+      <c r="X45" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="X45" s="9">
+      <c r="Y45" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="7">
+      <c r="C46" s="7">
         <v>61</v>
       </c>
-      <c r="C46" s="7">
+      <c r="D46" s="7">
         <v>67</v>
       </c>
-      <c r="D46" s="8">
+      <c r="E46" s="8">
         <v>64</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>47.5</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>251</v>
       </c>
-      <c r="G46" s="9">
+      <c r="H46" s="9">
         <v>33</v>
       </c>
-      <c r="H46" s="9">
+      <c r="I46" s="9">
         <v>41.1</v>
       </c>
-      <c r="I46" s="9">
+      <c r="J46" s="9">
         <v>3.9</v>
-      </c>
-      <c r="J46" s="9">
-        <v>5.6</v>
       </c>
       <c r="K46" s="9">
         <v>5.6</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="M46" s="10">
         <v>-80.5</v>
       </c>
-      <c r="M46" s="10">
+      <c r="N46" s="10">
         <v>354.9</v>
       </c>
-      <c r="N46" s="9">
+      <c r="O46" s="9">
         <v>18.8</v>
       </c>
-      <c r="O46" s="9">
+      <c r="P46" s="9">
         <v>5.6</v>
       </c>
-      <c r="P46" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="9">
+        <v>101</v>
+      </c>
+      <c r="R46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R46" s="9">
+      <c r="S46" s="9">
         <v>-79.900000000000006</v>
       </c>
-      <c r="S46" s="9">
+      <c r="T46" s="9">
         <v>34.6</v>
       </c>
-      <c r="T46" s="9">
+      <c r="U46" s="9">
         <v>82.4</v>
       </c>
-      <c r="U46" s="9">
+      <c r="V46" s="9">
         <v>3.6</v>
       </c>
-      <c r="V46" s="9">
+      <c r="W46" s="9">
         <v>20.399999999999999</v>
       </c>
-      <c r="W46" s="14" t="s">
+      <c r="X46" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="X46" s="9">
+      <c r="Y46" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="7">
+      <c r="C47" s="7">
         <v>67</v>
       </c>
-      <c r="C47" s="7">
+      <c r="D47" s="7">
         <v>76</v>
       </c>
-      <c r="D47" s="8">
+      <c r="E47" s="8">
         <v>71.5</v>
       </c>
-      <c r="E47" s="7">
+      <c r="F47" s="7">
         <v>32</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>250.2</v>
       </c>
-      <c r="G47" s="9">
+      <c r="H47" s="9">
         <v>29</v>
       </c>
-      <c r="H47" s="9">
+      <c r="I47" s="9">
         <v>21.6</v>
       </c>
-      <c r="I47" s="9">
+      <c r="J47" s="9">
         <v>5.9</v>
-      </c>
-      <c r="J47" s="9">
-        <v>8</v>
       </c>
       <c r="K47" s="9">
         <v>8</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
+        <v>8</v>
+      </c>
+      <c r="M47" s="10">
         <v>-71.8</v>
       </c>
-      <c r="M47" s="10">
+      <c r="N47" s="10">
         <v>28.3</v>
       </c>
-      <c r="N47" s="9">
+      <c r="O47" s="9">
         <v>11</v>
       </c>
-      <c r="O47" s="9">
+      <c r="P47" s="9">
         <v>8</v>
       </c>
-      <c r="P47" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q47" s="9" t="s">
+      <c r="Q47" s="9">
+        <v>101</v>
+      </c>
+      <c r="R47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R47" s="9">
+      <c r="S47" s="9">
         <v>-69.2</v>
       </c>
-      <c r="S47" s="9">
+      <c r="T47" s="9">
         <v>56.8</v>
       </c>
-      <c r="T47" s="9">
+      <c r="U47" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="U47" s="9">
+      <c r="V47" s="9">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="V47" s="9">
+      <c r="W47" s="9">
         <v>22.7</v>
       </c>
-      <c r="W47" s="14" t="s">
+      <c r="X47" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="X47" s="9">
+      <c r="Y47" s="9">
         <v>5</v>
       </c>
-      <c r="Y47" s="14" t="s">
+      <c r="Z47" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="Z47" s="14" t="s">
+      <c r="AA47" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="7">
+      <c r="C48" s="7">
         <v>68</v>
       </c>
-      <c r="C48" s="7">
+      <c r="D48" s="7">
         <v>76</v>
       </c>
-      <c r="D48" s="8">
+      <c r="E48" s="8">
         <v>72</v>
       </c>
-      <c r="E48" s="7">
+      <c r="F48" s="7">
         <v>32.1</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>248.5</v>
       </c>
-      <c r="G48" s="9">
+      <c r="H48" s="9">
         <v>9</v>
       </c>
-      <c r="H48" s="9">
+      <c r="I48" s="9">
         <v>70.099999999999994</v>
-      </c>
-      <c r="I48" s="9">
-        <v>6.2</v>
       </c>
       <c r="J48" s="9">
         <v>6.2</v>
       </c>
       <c r="K48" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="L48" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L48" s="10">
+      <c r="M48" s="10">
         <v>-69.8</v>
       </c>
-      <c r="M48" s="10">
+      <c r="N48" s="10">
         <v>354.9</v>
       </c>
-      <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q48" s="9" t="s">
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9">
+        <v>101</v>
+      </c>
+      <c r="R48" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="9">
+      <c r="S48" s="9">
         <v>-68.599999999999994</v>
       </c>
-      <c r="S48" s="9">
+      <c r="T48" s="9">
         <v>26.4</v>
       </c>
-      <c r="T48" s="9">
+      <c r="U48" s="9">
         <v>81.3</v>
       </c>
-      <c r="U48" s="9">
+      <c r="V48" s="9">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="V48" s="9">
+      <c r="W48" s="9">
         <v>23.1</v>
       </c>
-      <c r="W48" s="14" t="s">
+      <c r="X48" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="X48" s="9">
+      <c r="Y48" s="9">
         <v>5</v>
       </c>
-      <c r="Y48" s="14" t="s">
+      <c r="Z48" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="Z48" s="14" t="s">
+      <c r="AA48" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="7">
+      <c r="C49" s="7">
         <v>71</v>
       </c>
-      <c r="C49" s="7">
+      <c r="D49" s="7">
         <v>81</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E49" s="8">
         <v>76</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <v>47.5</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>248.1</v>
       </c>
-      <c r="G49" s="9">
+      <c r="H49" s="9">
         <v>26</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
         <v>39.4</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J49" s="9">
+      <c r="K49" s="9">
         <v>6.5</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="9">
         <v>7.7</v>
       </c>
-      <c r="L49" s="10">
+      <c r="M49" s="10">
         <v>-83.4</v>
       </c>
-      <c r="M49" s="10">
+      <c r="N49" s="10">
         <v>20.9</v>
       </c>
-      <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q49" s="9" t="s">
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9">
+        <v>101</v>
+      </c>
+      <c r="R49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R49" s="9">
+      <c r="S49" s="9">
         <v>-80.7</v>
       </c>
-      <c r="S49" s="9">
+      <c r="T49" s="9">
         <v>58.1</v>
       </c>
-      <c r="T49" s="9">
+      <c r="U49" s="9">
         <v>80.7</v>
       </c>
-      <c r="U49" s="9">
+      <c r="V49" s="9">
         <v>-12.3</v>
       </c>
-      <c r="V49" s="9">
+      <c r="W49" s="9">
         <v>24.3</v>
       </c>
-      <c r="W49" s="14" t="s">
+      <c r="X49" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="X49" s="9">
+      <c r="Y49" s="9">
         <v>6</v>
       </c>
-      <c r="Z49" s="14" t="s">
+      <c r="AA49" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="7">
+      <c r="C50" s="7">
         <v>76.5</v>
       </c>
-      <c r="C50" s="7">
+      <c r="D50" s="7">
         <v>77.5</v>
       </c>
-      <c r="D50" s="8">
+      <c r="E50" s="8">
         <v>77</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>45.9</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>248.1</v>
       </c>
-      <c r="G50" s="9">
+      <c r="H50" s="9">
         <v>5</v>
       </c>
-      <c r="H50" s="9">
+      <c r="I50" s="9">
         <v>71.900000000000006</v>
       </c>
-      <c r="I50" s="9">
+      <c r="J50" s="9">
         <v>9</v>
       </c>
-      <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="10">
+      <c r="L50" s="9"/>
+      <c r="M50" s="10">
         <v>-80.8</v>
       </c>
-      <c r="M50" s="10">
+      <c r="N50" s="10">
         <v>358.1</v>
       </c>
-      <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q50" s="9" t="s">
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9">
+        <v>101</v>
+      </c>
+      <c r="R50" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R50" s="9">
+      <c r="S50" s="9">
         <v>-78</v>
       </c>
-      <c r="S50" s="9">
+      <c r="T50" s="9">
         <v>43.4</v>
       </c>
-      <c r="T50" s="9">
+      <c r="U50" s="9">
         <v>79.5</v>
       </c>
-      <c r="U50" s="9">
+      <c r="V50" s="9">
         <v>-15.9</v>
       </c>
-      <c r="V50" s="9">
+      <c r="W50" s="9">
         <v>25.7</v>
       </c>
-      <c r="W50" s="14" t="s">
+      <c r="X50" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="X50" s="9">
+      <c r="Y50" s="9">
         <v>6</v>
       </c>
-      <c r="Z50" s="14" t="s">
+      <c r="AA50" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="7">
+      <c r="C51" s="7">
         <v>69</v>
       </c>
-      <c r="C51" s="7">
+      <c r="D51" s="7">
         <v>89</v>
       </c>
-      <c r="D51" s="8">
+      <c r="E51" s="8">
         <v>79</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F51" s="7">
         <v>40</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>256</v>
       </c>
-      <c r="G51" s="9">
+      <c r="H51" s="9">
         <v>4</v>
       </c>
-      <c r="H51" s="9">
+      <c r="I51" s="9">
         <v>91.7</v>
       </c>
-      <c r="I51" s="9">
+      <c r="J51" s="9">
         <v>9.6</v>
       </c>
-      <c r="J51" s="9"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="10">
+      <c r="L51" s="9"/>
+      <c r="M51" s="10">
         <v>-59.8</v>
       </c>
-      <c r="M51" s="10">
+      <c r="N51" s="10">
         <v>17.7</v>
       </c>
-      <c r="N51" s="9">
+      <c r="O51" s="9">
         <v>30.1</v>
       </c>
-      <c r="O51" s="9">
+      <c r="P51" s="9">
         <v>17</v>
       </c>
-      <c r="P51" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" s="9">
+        <v>101</v>
+      </c>
+      <c r="R51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R51" s="9">
+      <c r="S51" s="9">
         <v>-52.8</v>
       </c>
-      <c r="S51" s="9">
+      <c r="T51" s="9">
         <v>70.3</v>
       </c>
-      <c r="T51" s="9">
+      <c r="U51" s="9">
         <v>78.7</v>
       </c>
-      <c r="U51" s="9">
+      <c r="V51" s="9">
         <v>-18.100000000000001</v>
       </c>
-      <c r="V51" s="9">
+      <c r="W51" s="9">
         <v>26.9</v>
       </c>
-      <c r="W51" s="14" t="s">
+      <c r="X51" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="X51" s="9">
+      <c r="Y51" s="9">
         <v>5</v>
       </c>
-      <c r="Z51" s="14" t="s">
+      <c r="AA51" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="7">
+      <c r="C52" s="7">
         <v>75</v>
       </c>
-      <c r="C52" s="7">
+      <c r="D52" s="7">
         <v>85</v>
       </c>
-      <c r="D52" s="8">
+      <c r="E52" s="8">
         <v>80</v>
       </c>
-      <c r="E52" s="7">
+      <c r="F52" s="7">
         <v>46.1</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>248.9</v>
       </c>
-      <c r="G52" s="9">
+      <c r="H52" s="9">
         <v>11</v>
       </c>
-      <c r="H52" s="9">
+      <c r="I52" s="9">
         <v>55.6</v>
       </c>
-      <c r="I52" s="9">
+      <c r="J52" s="9">
         <v>6.2</v>
-      </c>
-      <c r="J52" s="9">
-        <v>9.8000000000000007</v>
       </c>
       <c r="K52" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M52" s="10">
         <v>-69.8</v>
       </c>
-      <c r="M52" s="10">
+      <c r="N52" s="10">
         <v>27.8</v>
       </c>
-      <c r="N52" s="9">
+      <c r="O52" s="9">
         <v>22.7</v>
       </c>
-      <c r="O52" s="9">
+      <c r="P52" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P52" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="9">
+        <v>101</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="9">
+      <c r="S52" s="9">
         <v>-65.5</v>
       </c>
-      <c r="S52" s="9">
+      <c r="T52" s="9">
         <v>60.8</v>
       </c>
-      <c r="T52" s="9">
+      <c r="U52" s="9">
         <v>78.2</v>
       </c>
-      <c r="U52" s="9">
+      <c r="V52" s="9">
         <v>-18.8</v>
       </c>
-      <c r="V52" s="9">
+      <c r="W52" s="9">
         <v>27.5</v>
       </c>
-      <c r="W52" s="14" t="s">
+      <c r="X52" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X52" s="9">
+      <c r="Y52" s="9">
         <v>6</v>
       </c>
-      <c r="Y52" s="14" t="s">
+      <c r="Z52" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="Z52" s="14" t="s">
+      <c r="AA52" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="7">
+      <c r="C53" s="7">
         <v>77</v>
       </c>
-      <c r="C53" s="7">
+      <c r="D53" s="7">
         <v>83</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E53" s="8">
         <v>80</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F53" s="7">
         <v>46.1</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>248</v>
       </c>
-      <c r="G53" s="9">
+      <c r="H53" s="9">
         <v>15</v>
       </c>
-      <c r="H53" s="9">
+      <c r="I53" s="9">
         <v>34.6</v>
       </c>
-      <c r="I53" s="9">
+      <c r="J53" s="9">
         <v>6.6</v>
-      </c>
-      <c r="J53" s="9">
-        <v>9.6</v>
       </c>
       <c r="K53" s="9">
         <v>9.6</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="M53" s="10">
         <v>-80.3</v>
       </c>
-      <c r="M53" s="10">
+      <c r="N53" s="10">
         <v>9.5</v>
       </c>
-      <c r="N53" s="9">
+      <c r="O53" s="9">
         <v>16.8</v>
       </c>
-      <c r="O53" s="9">
+      <c r="P53" s="9">
         <v>9.6</v>
       </c>
-      <c r="P53" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q53" s="9" t="s">
+      <c r="Q53" s="9">
+        <v>101</v>
+      </c>
+      <c r="R53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="9">
+      <c r="S53" s="9">
         <v>-77.2</v>
       </c>
-      <c r="S53" s="9">
+      <c r="T53" s="9">
         <v>55.4</v>
       </c>
-      <c r="T53" s="9">
+      <c r="U53" s="9">
         <v>77.8</v>
       </c>
-      <c r="U53" s="9">
+      <c r="V53" s="9">
         <v>-19.399999999999999</v>
       </c>
-      <c r="V53" s="9">
+      <c r="W53" s="9">
         <v>28.1</v>
       </c>
-      <c r="W53" s="14" t="s">
+      <c r="X53" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="X53" s="9">
+      <c r="Y53" s="9">
         <v>7</v>
       </c>
-      <c r="Z53" s="14" t="s">
+      <c r="AA53" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="7">
+      <c r="C54" s="7">
         <v>98</v>
       </c>
-      <c r="C54" s="7">
+      <c r="D54" s="7">
         <v>102</v>
       </c>
-      <c r="D54" s="8">
+      <c r="E54" s="8">
         <v>100</v>
       </c>
-      <c r="E54" s="7">
+      <c r="F54" s="7">
         <v>34.299999999999997</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>267.5</v>
       </c>
-      <c r="G54" s="9">
+      <c r="H54" s="9">
         <v>20</v>
       </c>
-      <c r="H54" s="9">
+      <c r="I54" s="9">
         <v>56.8</v>
       </c>
-      <c r="I54" s="9">
+      <c r="J54" s="9">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="J54" s="9">
-        <v>5.7</v>
       </c>
       <c r="K54" s="9">
         <v>5.7</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="M54" s="10">
         <v>-74.099999999999994</v>
       </c>
-      <c r="M54" s="10">
+      <c r="N54" s="10">
         <v>12.5</v>
       </c>
-      <c r="N54" s="9">
+      <c r="O54" s="9">
         <v>34</v>
       </c>
-      <c r="O54" s="9">
+      <c r="P54" s="9">
         <v>5.7</v>
       </c>
-      <c r="P54" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q54" s="9" t="s">
+      <c r="Q54" s="9">
+        <v>101</v>
+      </c>
+      <c r="R54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R54" s="9">
+      <c r="S54" s="9">
         <v>-61.2</v>
       </c>
-      <c r="S54" s="9">
+      <c r="T54" s="9">
         <v>65.2</v>
       </c>
-      <c r="T54" s="9">
+      <c r="U54" s="9">
         <v>69.400000000000006</v>
       </c>
-      <c r="U54" s="9">
+      <c r="V54" s="9">
         <v>-23.5</v>
       </c>
-      <c r="V54" s="9">
+      <c r="W54" s="9">
         <v>40.5</v>
       </c>
-      <c r="W54" s="14" t="s">
+      <c r="X54" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="X54" s="9">
+      <c r="Y54" s="9">
         <v>5</v>
       </c>
-      <c r="Z54" s="14" t="s">
+      <c r="AA54" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="7">
+      <c r="C55" s="7">
         <v>99.7</v>
       </c>
-      <c r="C55" s="7">
+      <c r="D55" s="7">
         <v>100.3</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E55" s="8">
         <v>100</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F55" s="7">
         <v>43.5</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>287.13</v>
       </c>
-      <c r="G55" s="9">
+      <c r="H55" s="9">
         <v>5</v>
       </c>
-      <c r="H55" s="9">
+      <c r="I55" s="9">
         <v>87</v>
       </c>
-      <c r="I55" s="9">
+      <c r="J55" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="10">
+      <c r="L55" s="9"/>
+      <c r="M55" s="10">
         <v>-72.099999999999994</v>
       </c>
-      <c r="M55" s="10">
+      <c r="N55" s="10">
         <v>17</v>
       </c>
-      <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q55" s="9" t="s">
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9">
+        <v>101</v>
+      </c>
+      <c r="R55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R55" s="9">
+      <c r="S55" s="9">
         <v>-59.3</v>
       </c>
-      <c r="S55" s="9">
+      <c r="T55" s="9">
         <v>70</v>
       </c>
-      <c r="T55" s="9">
+      <c r="U55" s="9">
         <v>69.400000000000006</v>
       </c>
-      <c r="U55" s="9">
+      <c r="V55" s="9">
         <v>-23.5</v>
       </c>
-      <c r="V55" s="9">
+      <c r="W55" s="9">
         <v>40.5</v>
       </c>
-      <c r="W55" s="14" t="s">
+      <c r="X55" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X55" s="9">
+      <c r="Y55" s="9">
         <v>5</v>
       </c>
-      <c r="Z55" s="14" t="s">
+      <c r="AA55" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="7">
+      <c r="C56" s="7">
         <v>99</v>
       </c>
-      <c r="C56" s="7">
+      <c r="D56" s="7">
         <v>107</v>
       </c>
-      <c r="D56" s="8">
+      <c r="E56" s="8">
         <v>103</v>
       </c>
-      <c r="E56" s="7">
+      <c r="F56" s="7">
         <v>43.67</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>70.83</v>
       </c>
-      <c r="G56" s="9">
+      <c r="H56" s="9">
         <v>10</v>
       </c>
-      <c r="H56" s="9">
+      <c r="I56" s="9">
         <v>145</v>
       </c>
-      <c r="I56" s="9">
+      <c r="J56" s="9">
         <v>4</v>
       </c>
-      <c r="J56" s="9"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="10">
+      <c r="L56" s="9"/>
+      <c r="M56" s="10">
         <v>-76.5</v>
       </c>
-      <c r="M56" s="10">
+      <c r="N56" s="10">
         <v>320</v>
       </c>
-      <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q56" s="9" t="s">
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9">
+        <v>101</v>
+      </c>
+      <c r="R56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R56" s="9">
+      <c r="S56" s="9">
         <v>-69.400000000000006</v>
       </c>
-      <c r="S56" s="9">
+      <c r="T56" s="9">
         <v>45.2</v>
       </c>
-      <c r="T56" s="9">
+      <c r="U56" s="9">
         <v>68.8</v>
       </c>
-      <c r="U56" s="9">
+      <c r="V56" s="9">
         <v>-23.1</v>
       </c>
-      <c r="V56" s="9">
+      <c r="W56" s="9">
         <v>42.6</v>
       </c>
-      <c r="W56" s="14" t="s">
+      <c r="X56" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X56" s="9">
+      <c r="Y56" s="9">
         <v>5</v>
       </c>
-      <c r="Z56" s="14" t="s">
+      <c r="AA56" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="7">
+      <c r="C57" s="7">
         <v>108</v>
       </c>
-      <c r="C57" s="7">
+      <c r="D57" s="7">
         <v>114</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E57" s="8">
         <v>111</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F57" s="7">
         <v>42.98</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>288.92</v>
       </c>
-      <c r="G57" s="9">
+      <c r="H57" s="9">
         <v>12</v>
       </c>
-      <c r="H57" s="9">
+      <c r="I57" s="9">
         <v>96</v>
       </c>
-      <c r="I57" s="9">
+      <c r="J57" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="10">
+      <c r="L57" s="9"/>
+      <c r="M57" s="10">
         <v>-71.5</v>
       </c>
-      <c r="M57" s="10">
+      <c r="N57" s="10">
         <v>2.6</v>
       </c>
-      <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q57" s="9" t="s">
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9">
+        <v>101</v>
+      </c>
+      <c r="R57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R57" s="9">
+      <c r="S57" s="9">
         <v>-56</v>
       </c>
-      <c r="S57" s="9">
+      <c r="T57" s="9">
         <v>67.599999999999994</v>
       </c>
-      <c r="T57" s="9">
+      <c r="U57" s="9">
         <v>67.3</v>
       </c>
-      <c r="U57" s="9">
+      <c r="V57" s="9">
         <v>-22</v>
       </c>
-      <c r="V57" s="9">
+      <c r="W57" s="9">
         <v>48.2</v>
       </c>
-      <c r="W57" s="14" t="s">
+      <c r="X57" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X57" s="9">
+      <c r="Y57" s="9">
         <v>5</v>
       </c>
-      <c r="Z57" s="14" t="s">
+      <c r="AA57" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="7">
+      <c r="C58" s="7">
         <v>111.7</v>
       </c>
-      <c r="C58" s="7">
+      <c r="D58" s="7">
         <v>112.5</v>
       </c>
-      <c r="D58" s="8">
+      <c r="E58" s="8">
         <v>112.1</v>
       </c>
-      <c r="E58" s="7">
+      <c r="F58" s="7">
         <v>44.03</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>289.18</v>
       </c>
-      <c r="G58" s="9">
+      <c r="H58" s="9">
         <v>5</v>
       </c>
-      <c r="H58" s="9">
+      <c r="I58" s="9">
         <v>141</v>
       </c>
-      <c r="I58" s="9">
+      <c r="J58" s="9">
         <v>6.5</v>
       </c>
-      <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="10">
+      <c r="L58" s="9"/>
+      <c r="M58" s="10">
         <v>-77.400000000000006</v>
       </c>
-      <c r="M58" s="10">
+      <c r="N58" s="10">
         <v>5</v>
       </c>
-      <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q58" s="9" t="s">
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9">
+        <v>101</v>
+      </c>
+      <c r="R58" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R58" s="9">
+      <c r="S58" s="9">
         <v>-60.7</v>
       </c>
-      <c r="S58" s="9">
+      <c r="T58" s="9">
         <v>74.5</v>
       </c>
-      <c r="T58" s="9">
+      <c r="U58" s="9">
         <v>67.2</v>
       </c>
-      <c r="U58" s="9">
+      <c r="V58" s="9">
         <v>-21.8</v>
       </c>
-      <c r="V58" s="9">
+      <c r="W58" s="9">
         <v>48.9</v>
       </c>
-      <c r="W58" s="14" t="s">
+      <c r="X58" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X58" s="9">
+      <c r="Y58" s="9">
         <v>5</v>
       </c>
-      <c r="Z58" s="14" t="s">
+      <c r="AA58" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="7">
+      <c r="C59" s="7">
         <v>112.4</v>
       </c>
-      <c r="C59" s="7">
+      <c r="D59" s="7">
         <v>112.8</v>
       </c>
-      <c r="D59" s="8">
+      <c r="E59" s="8">
         <v>112.6</v>
       </c>
-      <c r="E59" s="7">
+      <c r="F59" s="7">
         <v>43.85</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>289.08</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <v>10</v>
       </c>
-      <c r="H59" s="9">
+      <c r="I59" s="9">
         <v>98</v>
       </c>
-      <c r="I59" s="9">
+      <c r="J59" s="9">
         <v>5.6</v>
       </c>
-      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="10">
+      <c r="L59" s="9"/>
+      <c r="M59" s="10">
         <v>-75.7</v>
       </c>
-      <c r="M59" s="10">
+      <c r="N59" s="10">
         <v>28.5</v>
       </c>
-      <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q59" s="9" t="s">
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9">
+        <v>101</v>
+      </c>
+      <c r="R59" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R59" s="9">
+      <c r="S59" s="9">
         <v>-57.1</v>
       </c>
-      <c r="S59" s="9">
+      <c r="T59" s="9">
         <v>84.1</v>
       </c>
-      <c r="T59" s="9">
+      <c r="U59" s="9">
         <v>67</v>
       </c>
-      <c r="U59" s="9">
+      <c r="V59" s="9">
         <v>-21.7</v>
       </c>
-      <c r="V59" s="9">
+      <c r="W59" s="9">
         <v>49.6</v>
       </c>
-      <c r="W59" s="14" t="s">
+      <c r="X59" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X59" s="9">
+      <c r="Y59" s="9">
         <v>5</v>
       </c>
-      <c r="Z59" s="14" t="s">
+      <c r="AA59" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B60" s="7">
+      <c r="C60" s="7">
         <v>118</v>
       </c>
-      <c r="C60" s="7">
+      <c r="D60" s="7">
         <v>122</v>
       </c>
-      <c r="D60" s="8">
+      <c r="E60" s="8">
         <v>120</v>
       </c>
-      <c r="E60" s="7">
+      <c r="F60" s="7">
         <v>43.5</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>289.3</v>
       </c>
-      <c r="G60" s="9">
+      <c r="H60" s="9">
         <v>14</v>
       </c>
-      <c r="H60" s="9">
+      <c r="I60" s="9">
         <v>121</v>
       </c>
-      <c r="I60" s="9">
+      <c r="J60" s="9">
         <v>3.6</v>
       </c>
-      <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="10">
+      <c r="L60" s="9"/>
+      <c r="M60" s="10">
         <v>-74</v>
       </c>
-      <c r="M60" s="10">
+      <c r="N60" s="10">
         <v>29.8</v>
       </c>
-      <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q60" s="9" t="s">
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9">
+        <v>101</v>
+      </c>
+      <c r="R60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R60" s="9">
+      <c r="S60" s="9">
         <v>-53.1</v>
       </c>
-      <c r="S60" s="9">
+      <c r="T60" s="9">
         <v>88.2</v>
       </c>
-      <c r="T60" s="9">
+      <c r="U60" s="9">
         <v>66</v>
       </c>
-      <c r="U60" s="9">
+      <c r="V60" s="9">
         <v>-20.6</v>
       </c>
-      <c r="V60" s="9">
+      <c r="W60" s="9">
         <v>54.2</v>
       </c>
-      <c r="W60" s="14" t="s">
+      <c r="X60" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="X60" s="9">
+      <c r="Y60" s="9">
         <v>5</v>
       </c>
-      <c r="Y60" s="14" t="s">
+      <c r="Z60" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z60" s="14" t="s">
+      <c r="AA60" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="7">
+      <c r="C61" s="7">
         <v>120.2</v>
       </c>
-      <c r="C61" s="7">
+      <c r="D61" s="7">
         <v>121</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E61" s="8">
         <v>120.6</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F61" s="7">
         <v>43.2</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>291.39999999999998</v>
       </c>
-      <c r="G61" s="9">
+      <c r="H61" s="9">
         <v>12</v>
       </c>
-      <c r="H61" s="9">
+      <c r="I61" s="9">
         <v>91</v>
       </c>
-      <c r="I61" s="9">
+      <c r="J61" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="10">
+      <c r="L61" s="9"/>
+      <c r="M61" s="10">
         <v>-74.8</v>
       </c>
-      <c r="M61" s="10">
+      <c r="N61" s="10">
         <v>354.8</v>
       </c>
-      <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q61" s="9" t="s">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9">
+        <v>101</v>
+      </c>
+      <c r="R61" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R61" s="9">
+      <c r="S61" s="9">
         <v>-56.5</v>
       </c>
-      <c r="S61" s="9">
+      <c r="T61" s="9">
         <v>73.900000000000006</v>
       </c>
-      <c r="T61" s="9">
+      <c r="U61" s="9">
         <v>65.8</v>
       </c>
-      <c r="U61" s="9">
+      <c r="V61" s="9">
         <v>-20.2</v>
       </c>
-      <c r="V61" s="9">
+      <c r="W61" s="9">
         <v>54.8</v>
       </c>
-      <c r="W61" s="14" t="s">
+      <c r="X61" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="X61" s="9">
+      <c r="Y61" s="9">
         <v>5</v>
       </c>
-      <c r="Y61" s="14" t="s">
+      <c r="Z61" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z61" s="14" t="s">
+      <c r="AA61" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="7">
+      <c r="C62" s="7">
         <v>120</v>
       </c>
-      <c r="C62" s="7">
+      <c r="D62" s="7">
         <v>124</v>
       </c>
-      <c r="D62" s="8">
+      <c r="E62" s="8">
         <v>122</v>
       </c>
-      <c r="E62" s="7">
+      <c r="F62" s="7">
         <v>43.3</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <v>289.3</v>
       </c>
-      <c r="G62" s="9">
+      <c r="H62" s="9">
         <v>10</v>
       </c>
-      <c r="H62" s="9">
+      <c r="I62" s="9">
         <v>113</v>
       </c>
-      <c r="I62" s="9">
+      <c r="J62" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="10">
+      <c r="L62" s="9"/>
+      <c r="M62" s="10">
         <v>-65.900000000000006</v>
       </c>
-      <c r="M62" s="10">
+      <c r="N62" s="10">
         <v>27.8</v>
       </c>
-      <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q62" s="9" t="s">
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9">
+        <v>101</v>
+      </c>
+      <c r="R62" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R62" s="9">
+      <c r="S62" s="9">
         <v>-44.4</v>
       </c>
-      <c r="S62" s="9">
+      <c r="T62" s="9">
         <v>86.2</v>
       </c>
-      <c r="T62" s="9">
+      <c r="U62" s="9">
         <v>65.7</v>
       </c>
-      <c r="U62" s="9">
+      <c r="V62" s="9">
         <v>-19.8</v>
       </c>
-      <c r="V62" s="9">
+      <c r="W62" s="9">
         <v>55.3</v>
       </c>
-      <c r="W62" s="14" t="s">
+      <c r="X62" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="X62" s="9">
+      <c r="Y62" s="9">
         <v>5</v>
       </c>
-      <c r="Y62" s="14" t="s">
+      <c r="Z62" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z62" s="14" t="s">
+      <c r="AA62" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="7">
+      <c r="C63" s="7">
         <v>117</v>
       </c>
-      <c r="C63" s="7">
+      <c r="D63" s="7">
         <v>127</v>
       </c>
-      <c r="D63" s="8">
+      <c r="E63" s="8">
         <v>122</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F63" s="7">
         <v>45.3</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>286.8</v>
       </c>
-      <c r="G63" s="9">
+      <c r="H63" s="9">
         <v>70</v>
       </c>
-      <c r="H63" s="9">
+      <c r="I63" s="9">
         <v>49.2</v>
       </c>
-      <c r="I63" s="9">
+      <c r="J63" s="9">
         <v>2.4</v>
       </c>
-      <c r="J63" s="9">
+      <c r="K63" s="9">
         <v>2.8</v>
       </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
         <v>3.7</v>
       </c>
-      <c r="L63" s="10">
+      <c r="M63" s="10">
         <v>-72</v>
       </c>
-      <c r="M63" s="10">
+      <c r="N63" s="10">
         <v>11.2</v>
       </c>
-      <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q63" s="9" t="s">
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9">
+        <v>101</v>
+      </c>
+      <c r="R63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R63" s="9">
+      <c r="S63" s="9">
         <v>-51.7</v>
       </c>
-      <c r="S63" s="9">
+      <c r="T63" s="9">
         <v>79.7</v>
       </c>
-      <c r="T63" s="9">
+      <c r="U63" s="9">
         <v>65.7</v>
       </c>
-      <c r="U63" s="9">
+      <c r="V63" s="9">
         <v>-19.8</v>
       </c>
-      <c r="V63" s="9">
+      <c r="W63" s="9">
         <v>55.3</v>
       </c>
-      <c r="W63" s="14" t="s">
+      <c r="X63" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="X63" s="9">
+      <c r="Y63" s="9">
         <v>6</v>
       </c>
-      <c r="Z63" s="14" t="s">
+      <c r="AA63" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="7">
+      <c r="C64" s="7">
         <v>119</v>
       </c>
-      <c r="C64" s="7">
+      <c r="D64" s="7">
         <v>126</v>
       </c>
-      <c r="D64" s="8">
+      <c r="E64" s="8">
         <v>122.5</v>
       </c>
-      <c r="E64" s="7">
+      <c r="F64" s="7">
         <v>43.5</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="7">
         <v>288.3</v>
       </c>
-      <c r="G64" s="9">
+      <c r="H64" s="9">
         <v>8</v>
       </c>
-      <c r="H64" s="9">
+      <c r="I64" s="9">
         <v>274.89999999999998</v>
       </c>
-      <c r="I64" s="9">
+      <c r="J64" s="9">
         <v>3.3</v>
-      </c>
-      <c r="J64" s="9">
-        <v>4.2</v>
       </c>
       <c r="K64" s="9">
         <v>4.2</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="M64" s="10">
         <v>-71.3</v>
       </c>
-      <c r="M64" s="10">
+      <c r="N64" s="10">
         <v>7.5</v>
       </c>
-      <c r="N64" s="9">
+      <c r="O64" s="9">
         <v>174.9</v>
       </c>
-      <c r="O64" s="9">
+      <c r="P64" s="9">
         <v>4.2</v>
       </c>
-      <c r="P64" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" s="9">
+        <v>101</v>
+      </c>
+      <c r="R64" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R64" s="9">
+      <c r="S64" s="9">
         <v>-51.5</v>
       </c>
-      <c r="S64" s="9">
+      <c r="T64" s="9">
         <v>77.599999999999994</v>
       </c>
-      <c r="T64" s="9">
+      <c r="U64" s="9">
         <v>65.7</v>
       </c>
-      <c r="U64" s="9">
+      <c r="V64" s="9">
         <v>-19.8</v>
       </c>
-      <c r="V64" s="9">
+      <c r="W64" s="9">
         <v>55.3</v>
       </c>
-      <c r="W64" s="14" t="s">
+      <c r="X64" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="X64" s="9">
+      <c r="Y64" s="9">
         <v>5</v>
       </c>
-      <c r="Z64" s="14" t="s">
+      <c r="AA64" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="7">
+      <c r="C65" s="7">
         <v>122</v>
       </c>
-      <c r="C65" s="7">
+      <c r="D65" s="7">
         <v>128</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E65" s="8">
         <v>125</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F65" s="7">
         <v>43.4</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G65" s="7">
         <v>289.2</v>
       </c>
-      <c r="G65" s="9">
+      <c r="H65" s="9">
         <v>5</v>
       </c>
-      <c r="H65" s="9">
+      <c r="I65" s="9">
         <v>113</v>
       </c>
-      <c r="I65" s="9">
+      <c r="J65" s="9">
         <v>7.5</v>
       </c>
-      <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="10">
+      <c r="L65" s="9"/>
+      <c r="M65" s="10">
         <v>-71</v>
       </c>
-      <c r="M65" s="10">
+      <c r="N65" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q65" s="9" t="s">
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9">
+        <v>101</v>
+      </c>
+      <c r="R65" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R65" s="9">
+      <c r="S65" s="9">
         <v>-49.4</v>
       </c>
-      <c r="S65" s="9">
+      <c r="T65" s="9">
         <v>83.7</v>
       </c>
-      <c r="T65" s="9">
+      <c r="U65" s="9">
         <v>65.400000000000006</v>
       </c>
-      <c r="U65" s="9">
+      <c r="V65" s="9">
         <v>-18.899999999999999</v>
       </c>
-      <c r="V65" s="9">
+      <c r="W65" s="9">
         <v>56.8</v>
       </c>
-      <c r="W65" s="14" t="s">
+      <c r="X65" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="X65" s="9">
+      <c r="Y65" s="9">
         <v>5</v>
       </c>
-      <c r="Y65" s="14" t="s">
+      <c r="Z65" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z65" s="14" t="s">
+      <c r="AA65" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="7">
+      <c r="C66" s="7">
         <v>122</v>
       </c>
-      <c r="C66" s="7">
+      <c r="D66" s="7">
         <v>136</v>
       </c>
-      <c r="D66" s="8">
+      <c r="E66" s="8">
         <v>129</v>
       </c>
-      <c r="E66" s="7">
+      <c r="F66" s="7">
         <v>49.5</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <v>304.60000000000002</v>
       </c>
-      <c r="G66" s="9">
+      <c r="H66" s="9">
         <v>10</v>
       </c>
-      <c r="H66" s="9">
+      <c r="I66" s="9">
         <v>180</v>
       </c>
-      <c r="I66" s="9">
+      <c r="J66" s="9">
         <v>3.6</v>
       </c>
-      <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="10">
+      <c r="L66" s="9"/>
+      <c r="M66" s="10">
         <v>-67.2</v>
       </c>
-      <c r="M66" s="10">
+      <c r="N66" s="10">
         <v>30.8</v>
       </c>
-      <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q66" s="9" t="s">
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9">
+        <v>101</v>
+      </c>
+      <c r="R66" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="R66" s="9">
+      <c r="S66" s="9">
         <v>-43.6</v>
       </c>
-      <c r="S66" s="9">
+      <c r="T66" s="9">
         <v>91.6</v>
       </c>
-      <c r="T66" s="9">
+      <c r="U66" s="9">
         <v>64.900000000000006</v>
       </c>
-      <c r="U66" s="9">
+      <c r="V66" s="9">
         <v>-17.7</v>
       </c>
-      <c r="V66" s="9">
+      <c r="W66" s="9">
         <v>58.7</v>
       </c>
-      <c r="W66" s="14" t="s">
+      <c r="X66" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="X66" s="9">
+      <c r="Y66" s="9">
         <v>5</v>
       </c>
-      <c r="Y66" s="14" t="s">
+      <c r="Z66" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="Z66" s="14" t="s">
+      <c r="AA66" s="14" t="s">
         <v>198</v>
       </c>
     </row>

--- a/data/Poles_NAM/NAM_poles_0_130.xlsx
+++ b/data/Poles_NAM/NAM_poles_0_130.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penokean/0000_GitHub/Young_CEED_2.0/data/Poles_NAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\TRABAJOS\2021_YOUNG_CEED\Young_CEED_2.0\data\Poles_NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F69C7B-0FB7-0947-BEFE-A4CE495C8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17340" xr2:uid="{F55FAC57-83FF-524C-B8F7-08FD345791B4}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="28800" windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -633,13 +632,13 @@
     <t>K-Ar of  ?</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>pole_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1058,25 +1057,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DBC92F-D069-B741-9DD7-5F7C979A8C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="7" width="10.83203125" style="3"/>
-    <col min="13" max="14" width="10.83203125" style="6"/>
-    <col min="24" max="24" width="10.83203125" style="14"/>
-    <col min="26" max="27" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="31.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="3"/>
+    <col min="5" max="5" width="10.875" style="5"/>
+    <col min="6" max="7" width="10.875" style="3"/>
+    <col min="13" max="14" width="10.875" style="6"/>
+    <col min="24" max="24" width="10.875" style="14"/>
+    <col min="26" max="27" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>65</v>
       </c>
